--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="21">
   <si>
     <t>TestCaseName</t>
   </si>

--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\git\Framework_fileupload\TestData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="255" windowWidth="13275" windowHeight="7980"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="9" r:id="rId1"/>
-    <sheet name="IterationOptions" sheetId="10" state="hidden" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="11" r:id="rId2"/>
+    <sheet name="IterationOptions" sheetId="10" state="hidden" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="39">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -77,14 +83,67 @@
     <t>Upload_File</t>
   </si>
   <si>
-    <t>URL:=https://files.fm/</t>
+    <t>URL:=https://s4rnd.nic.in:8443/sarathiservice/sarathiHomePublic.do</t>
+  </si>
+  <si>
+    <t>ApplyLLApplication</t>
+  </si>
+  <si>
+    <t>FirstName:=Rafi</t>
+  </si>
+  <si>
+    <t>Mname:=Shaik</t>
+  </si>
+  <si>
+    <t>Lname:=Mo</t>
+  </si>
+  <si>
+    <t>FFName:=Rasool</t>
+  </si>
+  <si>
+    <t>Fmname:=Shaik</t>
+  </si>
+  <si>
+    <t>FLName:=Mo</t>
+  </si>
+  <si>
+    <t>MobileNO:=9848756859</t>
+  </si>
+  <si>
+    <t>Dob:=01-02-1994</t>
+  </si>
+  <si>
+    <t>Pincode:=385560</t>
+  </si>
+  <si>
+    <t>LL_SlotBooking</t>
+  </si>
+  <si>
+    <t>LLNo:=75861117</t>
+  </si>
+  <si>
+    <t>DOB:=01-02-1994</t>
+  </si>
+  <si>
+    <t>Fee_Payment</t>
+  </si>
+  <si>
+    <t>Upload_photo_signature</t>
+  </si>
+  <si>
+    <t>Scrutinie_action</t>
+  </si>
+  <si>
+    <t>Password:=Kl@1234</t>
+  </si>
+  <si>
+    <t>UserName:=rtoauthkl01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6">
     <font>
       <sz val="10"/>
@@ -161,7 +220,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -181,6 +240,10 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -189,6 +252,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -235,7 +306,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -267,9 +338,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -301,6 +373,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -476,33 +549,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Scenario1"/>
-  <dimension ref="A1:DN5"/>
+  <dimension ref="A1:DN7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="35.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="8.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="2" width="17.28515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="17.28515625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="22.5703125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="36.0" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="25.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="25.140625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="36.42578125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="24.5703125" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="13.140625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="28.28515625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="2" width="17.85546875" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="27.7109375" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="29.85546875" collapsed="true"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" style="2" width="27.5703125" collapsed="true"/>
-    <col min="17" max="16384" style="2" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="35.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="8.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.28515625" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="36" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="25" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="25.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="36.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="24.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="13.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="28.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="17.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="27.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="29.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="27.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="16384" width="9.140625" style="2" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:118" s="3" customFormat="1">
@@ -631,82 +704,119 @@
     </row>
     <row r="2" spans="1:118" ht="18">
       <c r="A2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:118" ht="18">
-      <c r="A3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:118" ht="18">
-      <c r="A4" s="6" t="s">
-        <v>10</v>
+      <c r="A4" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:118" ht="18">
       <c r="A5" s="2" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>20</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:118" ht="18">
+      <c r="A6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:118" ht="18">
+      <c r="A7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -716,15 +826,106 @@
     <hyperlink ref="C3" r:id="rId2"/>
     <hyperlink ref="C4" r:id="rId3"/>
     <hyperlink ref="C5" r:id="rId4"/>
+    <hyperlink ref="C6" r:id="rId5"/>
+    <hyperlink ref="C7" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId7"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetData>
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="18">
+      <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="2" customFormat="1" ht="18">
+      <c r="A2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="2" customFormat="1" ht="18">
+      <c r="A3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C1" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId2"/>
+    <hyperlink ref="C3" r:id="rId3"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="IterationOptions"/>
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -732,7 +933,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">

--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="66">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -110,9 +110,6 @@
     <t>MobileNO:=9848756859</t>
   </si>
   <si>
-    <t>Dob:=01-02-1994</t>
-  </si>
-  <si>
     <t>Pincode:=385560</t>
   </si>
   <si>
@@ -138,6 +135,91 @@
   </si>
   <si>
     <t>UserName:=rtoauthkl01</t>
+  </si>
+  <si>
+    <t>Dob:=01-02-2001</t>
+  </si>
+  <si>
+    <t>DL_Submission</t>
+  </si>
+  <si>
+    <t>UserName:=rtoauthgj09</t>
+  </si>
+  <si>
+    <t>Password:=abc@123</t>
+  </si>
+  <si>
+    <t>Vehicle Number:=12345</t>
+  </si>
+  <si>
+    <t>Date:=01-11-2017</t>
+  </si>
+  <si>
+    <t>DL_Services</t>
+  </si>
+  <si>
+    <t>dlno:=CH01 20170000047</t>
+  </si>
+  <si>
+    <t>dob:=02-11-1994</t>
+  </si>
+  <si>
+    <t>DL_Page_Data_Filling</t>
+  </si>
+  <si>
+    <t>LL_Number:=RJ06 /0005495/2017</t>
+  </si>
+  <si>
+    <t>date:=01-11-1994</t>
+  </si>
+  <si>
+    <t>Date:=01-06-1991</t>
+  </si>
+  <si>
+    <t>Dl_Num:=UP41 20170001412</t>
+  </si>
+  <si>
+    <t>Location:=1234road</t>
+  </si>
+  <si>
+    <t>Pincode:=225205</t>
+  </si>
+  <si>
+    <t>DL_servces_withoutlogin</t>
+  </si>
+  <si>
+    <t>DL_Backlog_services</t>
+  </si>
+  <si>
+    <t>Numeric_L_No:=123456</t>
+  </si>
+  <si>
+    <t>Name:=remo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date:=01-11-2001
+</t>
+  </si>
+  <si>
+    <t>LL_BackLog</t>
+  </si>
+  <si>
+    <t>LL_Number:=75861117</t>
+  </si>
+  <si>
+    <t>FirstName:=sh</t>
+  </si>
+  <si>
+    <t>DOB:=01-11-1994</t>
+  </si>
+  <si>
+    <t>HouseNo:=1234</t>
+  </si>
+  <si>
+    <t>Street_name:=xyz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pincode:=695001 </t>
   </si>
 </sst>
 </file>
@@ -220,7 +302,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -244,6 +326,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -551,10 +639,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Scenario1"/>
-  <dimension ref="A1:DN7"/>
+  <dimension ref="A1:DN20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -562,7 +650,7 @@
     <col min="1" max="1" width="35.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="8.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="17.28515625" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.28515625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="26.7109375" style="2" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="22.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="36" style="2" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="25" style="2" bestFit="1" customWidth="1" collapsed="1"/>
@@ -745,15 +833,15 @@
         <v>28</v>
       </c>
       <c r="K3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:118" ht="18">
       <c r="A4" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>6</v>
@@ -762,15 +850,15 @@
         <v>20</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:118" ht="18">
       <c r="A5" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>6</v>
@@ -779,15 +867,15 @@
         <v>20</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:118" ht="18">
       <c r="A6" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>6</v>
@@ -796,15 +884,15 @@
         <v>20</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:118" ht="18">
       <c r="A7" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>6</v>
@@ -813,11 +901,162 @@
         <v>20</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:118" ht="18">
+      <c r="A8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:118" ht="18">
+      <c r="A9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:118" ht="18">
+      <c r="A10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" spans="1:118" ht="18">
+      <c r="A11" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:118" ht="25.5">
+      <c r="A12" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="E12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:118" ht="18">
+      <c r="A13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" ht="18">
+      <c r="C20" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -827,10 +1066,16 @@
     <hyperlink ref="C4" r:id="rId3"/>
     <hyperlink ref="C5" r:id="rId4"/>
     <hyperlink ref="C6" r:id="rId5"/>
-    <hyperlink ref="C7" r:id="rId6"/>
+    <hyperlink ref="C8" r:id="rId6"/>
+    <hyperlink ref="C9" r:id="rId7"/>
+    <hyperlink ref="C10" r:id="rId8"/>
+    <hyperlink ref="C11" r:id="rId9"/>
+    <hyperlink ref="C12" r:id="rId10"/>
+    <hyperlink ref="C7" r:id="rId11"/>
+    <hyperlink ref="C13" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId7"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId13"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
